--- a/src/main/resources/static/excel/xlsx/user.xlsx
+++ b/src/main/resources/static/excel/xlsx/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B7D79-FA0A-4C49-ACCD-63D49FFDB287}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCB5E1-5105-49A9-9AEF-855F6C50FD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>姓名</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>13712348596</t>
-  </si>
-  <si>
-    <t>女</t>
   </si>
   <si>
     <t>样本数据，添加时请删除。</t>
@@ -482,7 +479,7 @@
   <dimension ref="A1:E2297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -496,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -510,19 +507,19 @@
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
+      <c r="D2" s="4">
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/excel/xlsx/user.xlsx
+++ b/src/main/resources/static/excel/xlsx/user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBCB5E1-5105-49A9-9AEF-855F6C50FD5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3152A-28AE-4C3D-8261-E7003F4C8F67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>姓名</t>
   </si>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>工号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -476,19 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2297"/>
+  <dimension ref="A1:F2297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="1" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="25.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,11 +505,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -518,24 +525,27 @@
       <c r="D2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/static/excel/xlsx/user.xlsx
+++ b/src/main/resources/static/excel/xlsx/user.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\yuio-server\src\main\resources\static\excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE3152A-28AE-4C3D-8261-E7003F4C8F67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E583C555-5333-42F1-B0F3-604BAC4E1581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>姓名</t>
   </si>
@@ -54,6 +54,14 @@
   </si>
   <si>
     <t>状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +491,7 @@
   <dimension ref="A1:F2297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -522,11 +530,11 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>5</v>
